--- a/intervention/biology_auto.xlsx
+++ b/intervention/biology_auto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,21 +452,291 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F931100609041</t>
+          <t>T931100609002</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T931100609002</t>
+          <t>F931100609041</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>V931325309014</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>W931101108060</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Q931325208064</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>H931325209012</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>M931252916068</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Q931321008053</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B931412016036</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>G931101109060</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Y931321110015</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Y888201710013</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>K931101109004</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>D931100609028</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>X886463320016</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Q931100609020</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>M931252710007</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>C931321610014</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>P931383310002</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>U931412020025</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>X931325210023</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>W931101109061</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>N931100609007</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Q879418719002</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>D931100608056</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>A931383810034</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>R928218115049</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>U931101109019</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>T931100609029</t>
         </is>
       </c>
     </row>
